--- a/User Stories 3-2.xlsx
+++ b/User Stories 3-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emreeren/Downloads/USER STORIES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emreeren/Desktop/MASTER/58dPaper/tempRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1212C782-1361-DF42-B055-C37CA943B21E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E555E8-F939-6040-B5D6-E57377182982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -372,19 +372,13 @@
   <si>
     <t xml:space="preserve">As a Publisher, I want to publish a data package where its resource data is stored on my servers but the registry caches a copy of that data, so that that if my data is lost or gets broken I still have a copy people can use.
 </t>
-  </si>
-  <si>
-    <t>LINK FOR SURVEY</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/forms/d/e/1FAIpQLSfFbjUyaErTfULNl0HJeBo2eLmls4fh0IoOrDFZSIboOlXDqQ/viewform?usp=sf_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -410,12 +404,6 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -437,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -445,26 +433,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -486,7 +459,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +677,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2325,18 +2297,7 @@
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
     </row>
-    <row r="51" spans="1:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B51" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>